--- a/Administracion-de-Proyectos/Planeacion-del-proyecto/TMv3-BD de Riesgos.xlsx
+++ b/Administracion-de-Proyectos/Planeacion-del-proyecto/TMv3-BD de Riesgos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="210" windowWidth="10380" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="210" windowWidth="10380" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Identificación" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="381">
   <si>
     <t>Versión</t>
   </si>
@@ -814,9 +814,6 @@
   </si>
   <si>
     <t>Contingencia</t>
-  </si>
-  <si>
-    <t>[Logotipo]</t>
   </si>
   <si>
     <t>RG_087</t>
@@ -1271,12 +1268,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="41"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1284,6 +1275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0000AC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,20 +1425,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1458,45 +1451,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1532,22 +1519,22 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1555,24 +1542,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1580,25 +1549,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1681,16 +1677,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>315311</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85398</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1550276</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>13140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1584676</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47867</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3048000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>65689</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1712,8 +1708,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1097018" y="249622"/>
-          <a:ext cx="1269365" cy="783590"/>
+          <a:off x="4112173" y="13140"/>
+          <a:ext cx="1497724" cy="873670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1722,6 +1718,55 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>833438</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>79383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>26777</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1198569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="833438" y="396883"/>
+          <a:ext cx="1812714" cy="1119186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2031,202 +2076,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" s="52"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="53"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="29">
+        <v>42173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="B1" s="49"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="50"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="55"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B19" s="29">
+        <v>42173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="28"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="55"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="34">
+        <v>42174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="28"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="55"/>
+    </row>
+    <row r="28" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B28" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="33">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="33">
+      <c r="B29" s="29">
         <v>42173</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="32"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="52"/>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="B19" s="33">
-        <v>42173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="32"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="52"/>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="36" t="s">
+      <c r="C29" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="D29" s="28" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="B24" s="38">
-        <v>42174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="32"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="52"/>
-    </row>
-    <row r="28" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37">
-        <v>1</v>
-      </c>
-      <c r="B29" s="33">
-        <v>42173</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>350</v>
-      </c>
-    </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-    </row>
-    <row r="31" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-    </row>
-    <row r="32" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+    </row>
+    <row r="31" spans="1:4" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+    </row>
+    <row r="32" spans="1:4" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="30"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -2249,1639 +2294,1757 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="103.7109375" style="44" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="21" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" style="21" customWidth="1"/>
-    <col min="6" max="7" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="0" style="15" hidden="1"/>
+    <col min="1" max="1" width="11.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="103.7109375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" style="17" customWidth="1"/>
+    <col min="6" max="7" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="0" style="12" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="39" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="39" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="39" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="39" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="39" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="39" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="39" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="38" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="38" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="38" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="38" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="38" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="40" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="38" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="38" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="38" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="38" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="38" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="38" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="40" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="61" t="s">
+      <c r="A41" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="38" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="40" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="40" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="61" t="s">
+      <c r="A44" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="61" t="s">
+      <c r="A45" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="40" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="44" t="s">
+      <c r="C46" s="40" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="40" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="40" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="57" t="s">
+      <c r="A49" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="40" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="57" t="s">
+      <c r="A50" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="40" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="40" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="40" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="61" t="s">
+      <c r="A53" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="44" t="s">
+      <c r="C53" s="40" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="61" t="s">
+      <c r="A54" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="40" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="61" t="s">
+      <c r="A55" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="40" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="61" t="s">
+      <c r="A56" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C56" s="44" t="s">
+      <c r="C56" s="40" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="57" t="s">
+      <c r="A57" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="40" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="57" t="s">
+      <c r="A58" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="44" t="s">
+      <c r="C58" s="40" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="61" t="s">
+      <c r="A59" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="44" t="s">
+      <c r="C59" s="40" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="57" t="s">
+      <c r="A60" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="40" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="61" t="s">
+      <c r="A61" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="44" t="s">
+      <c r="C61" s="40" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="44" t="s">
+      <c r="C62" s="40" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="61" t="s">
+      <c r="A63" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="40" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="61" t="s">
+      <c r="A64" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C64" s="44" t="s">
+      <c r="C64" s="40" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="57" t="s">
+      <c r="A65" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="57" t="s">
+      <c r="B65" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="44" t="s">
+      <c r="C65" s="40" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="61" t="s">
+      <c r="A66" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="44" t="s">
+      <c r="C66" s="40" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="61" t="s">
+      <c r="A67" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="57" t="s">
+      <c r="B67" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C67" s="44" t="s">
+      <c r="C67" s="40" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="57" t="s">
+      <c r="A68" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C68" s="44" t="s">
+      <c r="C68" s="40" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="61" t="s">
+      <c r="A69" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C69" s="44" t="s">
+      <c r="C69" s="40" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="61" t="s">
+      <c r="A70" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C70" s="44" t="s">
+      <c r="C70" s="40" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="61" t="s">
+      <c r="A71" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C71" s="44" t="s">
+      <c r="C71" s="40" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="61" t="s">
+      <c r="A72" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="B72" s="57" t="s">
+      <c r="B72" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="44" t="s">
+      <c r="C72" s="40" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="61" t="s">
+      <c r="A73" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="B73" s="57" t="s">
+      <c r="B73" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="44" t="s">
+      <c r="C73" s="40" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="61" t="s">
+      <c r="A74" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="B74" s="57" t="s">
+      <c r="B74" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C74" s="44" t="s">
+      <c r="C74" s="40" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="57" t="s">
+      <c r="A75" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C75" s="44" t="s">
+      <c r="C75" s="40" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="61" t="s">
+      <c r="A76" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="B76" s="57" t="s">
+      <c r="B76" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C76" s="44" t="s">
+      <c r="C76" s="40" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="B77" s="57" t="s">
+      <c r="B77" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C77" s="44" t="s">
+      <c r="C77" s="40" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="61" t="s">
+      <c r="A78" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="B78" s="57" t="s">
+      <c r="B78" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C78" s="44" t="s">
+      <c r="C78" s="40" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="61" t="s">
+      <c r="A79" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C79" s="44" t="s">
+      <c r="C79" s="40" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="61" t="s">
+      <c r="A80" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="B80" s="57" t="s">
+      <c r="B80" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C80" s="44" t="s">
+      <c r="C80" s="40" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="61" t="s">
+      <c r="A81" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="B81" s="57" t="s">
+      <c r="B81" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C81" s="44" t="s">
+      <c r="C81" s="40" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="61" t="s">
+      <c r="A82" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="B82" s="57" t="s">
+      <c r="B82" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C82" s="44" t="s">
+      <c r="C82" s="40" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="61" t="s">
+      <c r="A83" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="B83" s="57" t="s">
+      <c r="B83" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C83" s="44" t="s">
+      <c r="C83" s="40" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="61" t="s">
+      <c r="A84" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="B84" s="57" t="s">
+      <c r="B84" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C84" s="44" t="s">
+      <c r="C84" s="40" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="61" t="s">
+      <c r="A85" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="B85" s="57" t="s">
+      <c r="B85" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C85" s="44" t="s">
+      <c r="C85" s="40" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="61" t="s">
+      <c r="A86" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="B86" s="57" t="s">
+      <c r="B86" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C86" s="44" t="s">
+      <c r="C86" s="40" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="57" t="s">
+      <c r="A87" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="B87" s="57" t="s">
+      <c r="B87" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C87" s="44" t="s">
+      <c r="C87" s="40" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="57" t="s">
+      <c r="A88" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="B88" s="57" t="s">
+      <c r="B88" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C88" s="44" t="s">
+      <c r="C88" s="40" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="61" t="s">
+      <c r="A89" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B89" s="57" t="s">
+      <c r="B89" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="44" t="s">
+      <c r="C89" s="40" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="61" t="s">
+      <c r="A90" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="B90" s="57" t="s">
+      <c r="B90" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="C90" s="44" t="s">
+      <c r="C90" s="40" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="61" t="s">
+      <c r="A91" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="B91" s="57" t="s">
+      <c r="B91" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="C91" s="44" t="s">
+      <c r="C91" s="40" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="61" t="s">
+      <c r="A92" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="B92" s="57" t="s">
+      <c r="B92" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="C92" s="44" t="s">
+      <c r="C92" s="40" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="61" t="s">
+      <c r="A93" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="B93" s="57" t="s">
+      <c r="B93" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="C93" s="44" t="s">
+      <c r="C93" s="40" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="61" t="s">
+      <c r="A94" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="B94" s="57" t="s">
+      <c r="B94" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="C94" s="44" t="s">
+      <c r="C94" s="40" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="61" t="s">
+      <c r="A95" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="B95" s="57" t="s">
+      <c r="B95" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="C95" s="44" t="s">
+      <c r="C95" s="40" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="23" t="s">
+      <c r="A96" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B96" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C96" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="B96" s="40" t="s">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B97" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B98" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B99" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B100" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="B101" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B102" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B103" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B104" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="B105" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="B106" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B107" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="C107" s="41" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="B108" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="C108" s="41" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="B109" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="C109" s="41" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="B110" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="C110" s="41" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B111" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="C111" s="38" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B112" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="C112" s="38" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="B113" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="B114" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="C114" s="41" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="B115" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="C115" s="46" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="B116" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="C116" s="46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="B117" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B118" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="B119" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B120" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B121" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="B122" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="B123" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="B124" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="B125" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="B126" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B127" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="C96" s="14" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="B97" s="40" t="s">
+      <c r="C127" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B128" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="C97" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="B98" s="40" t="s">
+      <c r="C128" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="B129" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="C98" s="14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B99" s="40" t="s">
+      <c r="C129" s="23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="B130" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="C99" s="14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="B100" s="40" t="s">
+      <c r="C130" s="23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B131" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="C100" s="14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="B101" s="40" t="s">
+      <c r="C131" s="23" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="B132" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="C101" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="B102" s="40" t="s">
+      <c r="C132" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="B133" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="C102" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="B103" s="40" t="s">
+      <c r="C133" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="B134" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="C103" s="14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="B104" s="40" t="s">
+      <c r="C134" s="23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="B135" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="C104" s="14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="B105" s="40" t="s">
+      <c r="C135" s="23" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="B136" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="C105" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="B106" s="40" t="s">
-        <v>376</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="B107" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="C107" s="45" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="B108" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="C108" s="45" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="B109" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="C109" s="45" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="B110" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="C110" s="45" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="B111" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="C111" s="42" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="B112" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="C112" s="42" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="B113" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="C113" s="42" t="s">
+      <c r="C136" s="23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="B137" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C137" s="44" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="B138" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C138" s="43" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="B139" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C139" s="42" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="B114" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="C114" s="45" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="B115" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="C115" s="56" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="B116" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="C116" s="56" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B140" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C140" s="45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="B141" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C141" s="42" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="B142" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C142" s="42" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="B143" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C143" s="43" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="B144" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C144" s="43" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="B117" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="B118" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C118" s="24" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="B119" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C119" s="24" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="B120" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C120" s="24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="B121" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C121" s="24" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="B122" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C122" s="24" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="B123" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C123" s="24" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="B124" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C124" s="25" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="B125" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C125" s="24" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="B126" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C126" s="25" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="B127" s="40" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="B145" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C145" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="C127" s="27" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="B128" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="C128" s="27" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="B129" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="C129" s="27" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="B130" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="C130" s="27" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="B131" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="C131" s="27" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="B132" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="C132" s="27" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="B133" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="C133" s="27" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="B134" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="C134" s="27" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="B135" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="C135" s="27" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="B136" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="C136" s="27" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="23" t="s">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="B146" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="B137" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="C137" s="54" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="B138" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="C138" s="47" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="B139" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="C139" s="46" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="B140" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="C140" s="55" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="B141" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="C141" s="46" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="B142" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="C142" s="46" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="B143" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="C143" s="47" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="B144" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="C144" s="47" t="s">
+      <c r="C146" s="45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="48" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="B145" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="C145" s="55" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="B146" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="C146" s="55" t="s">
+      <c r="B147" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="C147" s="44" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="B147" s="58" t="s">
-        <v>334</v>
-      </c>
-      <c r="C147" s="54" t="s">
-        <v>370</v>
-      </c>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B148" s="47"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B149" s="47"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B150" s="47"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B151" s="47"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B152" s="47"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B153" s="47"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B154" s="47"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B155" s="47"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B156" s="47"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B157" s="47"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B158" s="47"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B159" s="47"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B160" s="47"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B161" s="47"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B162" s="47"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B163" s="47"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B164" s="47"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B165" s="47"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B166" s="47"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B167" s="47"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B168" s="47"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B169" s="47"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B170" s="47"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B171" s="47"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B172" s="47"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B173" s="47"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B174" s="47"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B175" s="47"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B176" s="47"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177" s="47"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178" s="47"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B179" s="47"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B180" s="47"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B181" s="47"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B182" s="47"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B183" s="47"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B184" s="47"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B185" s="47"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B186" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A7:C7"/>
+    <mergeCell ref="B1:C6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -3895,18 +4058,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88" style="5" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" style="5" customWidth="1"/>
-    <col min="6" max="7" width="0" style="5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88" style="4" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="0" style="4" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -3927,14 +4090,12 @@
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3"/>
-      <c r="B3" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
+    <row r="3" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3"/>
       <c r="G3"/>
     </row>
@@ -3966,11 +4127,11 @@
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="1"/>
       <c r="E7"/>
       <c r="F7"/>
@@ -3986,13 +4147,13 @@
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="59" t="s">
         <v>17</v>
       </c>
       <c r="D9"/>
@@ -4001,10 +4162,10 @@
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>264</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -4012,10 +4173,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>264</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4023,38 +4184,38 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>265</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>265</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>264</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -4062,10 +4223,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>264</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4073,10 +4234,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>264</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -4084,10 +4245,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>265</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4095,10 +4256,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>264</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -4106,10 +4267,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>264</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4117,10 +4278,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>264</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -4128,10 +4289,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>264</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -4139,21 +4300,21 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>264</v>
       </c>
       <c r="C23" t="s">
@@ -4161,10 +4322,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>264</v>
       </c>
       <c r="C24" t="s">
@@ -4172,10 +4333,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>264</v>
       </c>
       <c r="C25" t="s">
@@ -4183,10 +4344,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>264</v>
       </c>
       <c r="C26" t="s">
@@ -4194,32 +4355,32 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="9" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>264</v>
       </c>
       <c r="C29" t="s">
@@ -4227,10 +4388,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>264</v>
       </c>
       <c r="C30" t="s">
@@ -4238,32 +4399,32 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="9" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>264</v>
       </c>
       <c r="C33" t="s">
@@ -4271,43 +4432,43 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="9" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="9" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>265</v>
       </c>
       <c r="C37" t="s">
@@ -4315,21 +4476,21 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="8" t="s">
         <v>265</v>
       </c>
       <c r="C39" t="s">
@@ -4337,156 +4498,160 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="C40" s="9"/>
+      <c r="A40" s="8"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
       <c r="C41"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="9"/>
+      <c r="C42" s="7"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="9"/>
+      <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="9"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
     </row>
     <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
+      <c r="A52" s="8"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
+      <c r="A53" s="8"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
+      <c r="A54" s="8"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
+      <c r="A55" s="8"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
+      <c r="A56" s="8"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
+      <c r="A59" s="8"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="10"/>
+      <c r="A61" s="8"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="10"/>
+      <c r="A62" s="8"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="10"/>
+      <c r="A63" s="8"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="10"/>
+      <c r="A64" s="8"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="10"/>
+      <c r="A66" s="8"/>
     </row>
     <row r="67" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="10"/>
+      <c r="A67" s="8"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="10"/>
+      <c r="A69" s="8"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="10"/>
+      <c r="A70" s="8"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="10"/>
+      <c r="A71" s="8"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="10"/>
+      <c r="A72" s="8"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="10"/>
+      <c r="A73" s="8"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="10"/>
+      <c r="A74" s="8"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="10"/>
+      <c r="A76" s="8"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="10"/>
+      <c r="A77" s="8"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="10"/>
+      <c r="A78" s="8"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="10"/>
+      <c r="A79" s="8"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="10"/>
+      <c r="A80" s="8"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="10"/>
+      <c r="A81" s="8"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="10"/>
+      <c r="A82" s="8"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="10"/>
+      <c r="A83" s="8"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="10"/>
+      <c r="A84" s="8"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="10"/>
+      <c r="A85" s="8"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="10"/>
+      <c r="A86" s="8"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="10"/>
+      <c r="A89" s="8"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="10"/>
+      <c r="A90" s="8"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="10"/>
+      <c r="A91" s="8"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="10"/>
+      <c r="A92" s="8"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="10"/>
+      <c r="A93" s="8"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="10"/>
+      <c r="A94" s="8"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="10"/>
+      <c r="A95" s="8"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="10"/>
+      <c r="A96" s="8"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="10"/>
+      <c r="A97" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B39">
@@ -4496,5 +4661,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Administracion-de-Proyectos/Planeacion-del-proyecto/TMv3-BD de Riesgos.xlsx
+++ b/Administracion-de-Proyectos/Planeacion-del-proyecto/TMv3-BD de Riesgos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="404">
   <si>
     <t>Versión</t>
   </si>
@@ -1159,6 +1159,75 @@
   </si>
   <si>
     <t>El tester  que prueba el  módulo es el  mismo que lo realizo</t>
+  </si>
+  <si>
+    <t>MMC_031</t>
+  </si>
+  <si>
+    <t>MMC_032</t>
+  </si>
+  <si>
+    <t>MMC_033</t>
+  </si>
+  <si>
+    <t>MMC_034</t>
+  </si>
+  <si>
+    <t>MMC_035</t>
+  </si>
+  <si>
+    <t>MMC_036</t>
+  </si>
+  <si>
+    <t>MMC_037</t>
+  </si>
+  <si>
+    <t>MMC_038</t>
+  </si>
+  <si>
+    <t>MMC_039</t>
+  </si>
+  <si>
+    <t>MMC_040</t>
+  </si>
+  <si>
+    <t>MMC_041</t>
+  </si>
+  <si>
+    <t>MMC_042</t>
+  </si>
+  <si>
+    <t>MMC_043</t>
+  </si>
+  <si>
+    <t>MMC_044</t>
+  </si>
+  <si>
+    <t>MMC_045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adquirir una plantilla base para el proceso </t>
+  </si>
+  <si>
+    <t>Definir y dar a conocer las políticas del proyecto a todos los participantes</t>
+  </si>
+  <si>
+    <t>Establecer un proceso de control</t>
+  </si>
+  <si>
+    <t>Elección de otro proveedor de servicios</t>
+  </si>
+  <si>
+    <t>Realizar pruebas exhaustivas al producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilizar herramientas software previamente conocido </t>
+  </si>
+  <si>
+    <t>Verificar y validar la documentación</t>
+  </si>
+  <si>
+    <t>Buscar software alternativo que cubra la necesidad que sea de uso libre</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1494,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1561,6 +1630,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1585,16 +1660,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2076,40 +2148,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="55"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
@@ -2165,10 +2237,10 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="57"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
@@ -2194,10 +2266,10 @@
       <c r="A21" s="30"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="55"/>
+      <c r="B22" s="57"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
@@ -2223,12 +2295,12 @@
       <c r="A26" s="30"/>
     </row>
     <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="55"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="57"/>
     </row>
     <row r="28" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
@@ -2313,8 +2385,8 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -2322,8 +2394,8 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -2331,8 +2403,8 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -2340,8 +2412,8 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -2349,8 +2421,8 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -2358,19 +2430,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="13"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -4058,8 +4130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4091,11 +4163,11 @@
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3"/>
       <c r="G3"/>
     </row>
@@ -4127,11 +4199,11 @@
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="1"/>
       <c r="E7"/>
       <c r="F7"/>
@@ -4147,13 +4219,13 @@
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="51" t="s">
         <v>17</v>
       </c>
       <c r="D9"/>
@@ -4498,69 +4570,171 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="C40" s="7"/>
+      <c r="A40" s="52" t="s">
+        <v>381</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41"/>
+      <c r="A41" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="C41" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="7"/>
+      <c r="A42" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="7"/>
+      <c r="A43" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="7"/>
+      <c r="A44" s="52" t="s">
+        <v>385</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="52" t="s">
+        <v>386</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="52" t="s">
+        <v>387</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
+      <c r="A47" s="52" t="s">
+        <v>388</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="52" t="s">
+        <v>389</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="52" t="s">
+        <v>395</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
@@ -4654,7 +4828,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B54">
       <formula1>"Mitigación, Contingencia"</formula1>
     </dataValidation>
   </dataValidations>
